--- a/DataBase Table.xlsx
+++ b/DataBase Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Desktop\PROJECT\21. 화승\MakeCreateTableScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5323877-4F9D-4D3B-AE10-F23BCC3B64B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271AFA82-2603-47AD-AB26-72FAB62A87AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Machine" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="58">
   <si>
     <t>machine_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,14 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Machine</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,6 +241,10 @@
   </si>
   <si>
     <t>AUTO_INCREMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>work_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -699,7 +695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -711,31 +707,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="F1" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -743,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -760,7 +756,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -775,14 +771,14 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -792,14 +788,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -809,14 +805,14 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -844,42 +840,42 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="F1" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -887,7 +883,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -895,15 +891,15 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -914,14 +910,14 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -938,7 +934,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -955,7 +951,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -972,7 +968,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -989,7 +985,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1006,7 +1002,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1023,7 +1019,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1033,14 +1029,14 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1050,14 +1046,14 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1067,14 +1063,14 @@
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1084,14 +1080,14 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1101,14 +1097,14 @@
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1136,42 +1132,42 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" customHeight="1">
       <c r="A1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="F1" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -1179,7 +1175,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1187,15 +1183,15 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -1206,14 +1202,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -1223,14 +1219,14 @@
         <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -1240,7 +1236,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1252,17 +1248,17 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -1290,42 +1286,42 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="F1" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1333,7 +1329,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1341,12 +1337,12 @@
         <v>20</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>19</v>
@@ -1360,15 +1356,15 @@
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -1376,17 +1372,17 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -1410,17 +1406,17 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -1437,7 +1433,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -1454,7 +1450,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -1464,7 +1460,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1479,7 +1475,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -1501,7 +1497,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1512,31 +1508,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="F1" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1">
@@ -1544,10 +1540,10 @@
         <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -1561,7 +1557,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -1576,14 +1572,14 @@
         <v>27</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -1600,41 +1596,41 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="8" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -1651,7 +1647,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -1668,7 +1664,7 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -1678,7 +1674,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1693,7 +1689,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -1714,8 +1710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC1C419-F14A-4485-A0EB-EE10A019037F}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1726,42 +1722,42 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="F1" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1769,7 +1765,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1777,15 +1773,15 @@
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -1793,17 +1789,17 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -1820,24 +1816,24 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -1847,14 +1843,14 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -1864,14 +1860,14 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -1881,7 +1877,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1896,7 +1892,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
